--- a/data/financial_statements/sofp/VRSN.xlsx
+++ b/data/financial_statements/sofp/VRSN.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -122,9 +239,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -177,12 +291,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -487,144 +598,144 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>980200000</v>
+        <v>980000000</v>
       </c>
       <c r="C2">
-        <v>996900000</v>
+        <v>997000000</v>
       </c>
       <c r="D2">
-        <v>1209600000</v>
+        <v>1210000000</v>
       </c>
       <c r="E2">
-        <v>1205800000</v>
+        <v>1206000000</v>
       </c>
       <c r="F2">
-        <v>1198421000</v>
+        <v>1198000000</v>
       </c>
       <c r="G2">
         <v>1122989000</v>
@@ -730,8 +841,8 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
         <v>13000000</v>
@@ -816,23 +927,23 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>68300000</v>
+        <v>55000000</v>
       </c>
       <c r="C4">
-        <v>65300000</v>
+        <v>55000000</v>
       </c>
       <c r="D4">
-        <v>58100000</v>
+        <v>51000000</v>
       </c>
       <c r="E4">
-        <v>62900000</v>
+        <v>50000000</v>
       </c>
       <c r="F4">
-        <v>65989000</v>
+        <v>57000000</v>
       </c>
       <c r="G4">
         <v>66078000</v>
@@ -920,23 +1031,23 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>1048500000</v>
+        <v>1049000000</v>
       </c>
       <c r="C5">
-        <v>1062200000</v>
+        <v>1062000000</v>
       </c>
       <c r="D5">
-        <v>1267700000</v>
+        <v>1268000000</v>
       </c>
       <c r="E5">
-        <v>1268700000</v>
+        <v>1269000000</v>
       </c>
       <c r="F5">
-        <v>1264410000</v>
+        <v>1264000000</v>
       </c>
       <c r="G5">
         <v>1189067000</v>
@@ -1042,23 +1153,23 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
-        <v>235200000</v>
+        <v>244000000</v>
       </c>
       <c r="C6">
-        <v>240100000</v>
+        <v>249000000</v>
       </c>
       <c r="D6">
-        <v>244900000</v>
+        <v>252000000</v>
       </c>
       <c r="E6">
-        <v>251200000</v>
+        <v>260000000</v>
       </c>
       <c r="F6">
-        <v>249093000</v>
+        <v>259000000</v>
       </c>
       <c r="G6">
         <v>247694000</v>
@@ -1164,8 +1275,8 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
         <v>5000000</v>
@@ -1205,23 +1316,23 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
-        <v>197500000</v>
+        <v>53000000</v>
       </c>
       <c r="C8">
-        <v>197500000</v>
+        <v>53000000</v>
       </c>
       <c r="D8">
-        <v>197500000</v>
+        <v>53000000</v>
       </c>
       <c r="E8">
-        <v>197500000</v>
+        <v>53000000</v>
       </c>
       <c r="F8">
-        <v>197527000</v>
+        <v>53000000</v>
       </c>
       <c r="G8">
         <v>197527000</v>
@@ -1327,8 +1438,8 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
         <v>230500000</v>
@@ -1449,23 +1560,23 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
-        <v>32700000</v>
+        <v>164000000</v>
       </c>
       <c r="C10">
-        <v>32100000</v>
+        <v>163000000</v>
       </c>
       <c r="D10">
-        <v>32300000</v>
+        <v>165000000</v>
       </c>
       <c r="E10">
-        <v>35700000</v>
+        <v>167000000</v>
       </c>
       <c r="F10">
-        <v>38514000</v>
+        <v>168000000</v>
       </c>
       <c r="G10">
         <v>40651000</v>
@@ -1571,8 +1682,8 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
         <v>695900000</v>
@@ -1693,23 +1804,23 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
-        <v>1744400000</v>
+        <v>1744000000</v>
       </c>
       <c r="C12">
-        <v>1762500000</v>
+        <v>1763000000</v>
       </c>
       <c r="D12">
-        <v>1973200000</v>
+        <v>1973000000</v>
       </c>
       <c r="E12">
-        <v>1983800000</v>
+        <v>1984000000</v>
       </c>
       <c r="F12">
-        <v>1814707000</v>
+        <v>1815000000</v>
       </c>
       <c r="G12">
         <v>1741380000</v>
@@ -1815,23 +1926,23 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
-        <v>199000000</v>
+        <v>8000000</v>
       </c>
       <c r="C13">
-        <v>184300000</v>
+        <v>9000000</v>
       </c>
       <c r="D13">
-        <v>211100000</v>
+        <v>7000000</v>
       </c>
       <c r="E13">
-        <v>226600000</v>
+        <v>9000000</v>
       </c>
       <c r="F13">
-        <v>204511000</v>
+        <v>6000000</v>
       </c>
       <c r="G13">
         <v>175350000</v>
@@ -1937,8 +2048,8 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="M14">
         <v>5000000</v>
@@ -2008,8 +2119,8 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
         <v>896100000</v>
@@ -2130,8 +2241,8 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="AD16">
         <v>512779000</v>
@@ -2165,8 +2276,8 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
         <v>1054000000</v>
@@ -2206,23 +2317,23 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
-        <v>1095100000</v>
+        <v>1095000000</v>
       </c>
       <c r="C18">
-        <v>1067200000</v>
+        <v>1067000000</v>
       </c>
       <c r="D18">
-        <v>1088500000</v>
+        <v>1089000000</v>
       </c>
       <c r="E18">
         <v>1074000000</v>
       </c>
       <c r="F18">
-        <v>1048175000</v>
+        <v>1048000000</v>
       </c>
       <c r="G18">
         <v>998334000</v>
@@ -2328,23 +2439,23 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
-        <v>1787400000</v>
+        <v>1789000000</v>
       </c>
       <c r="C19">
-        <v>1786800000</v>
+        <v>1789000000</v>
       </c>
       <c r="D19">
-        <v>1786300000</v>
+        <v>1786000000</v>
       </c>
       <c r="E19">
-        <v>1785700000</v>
+        <v>1788000000</v>
       </c>
       <c r="F19">
-        <v>1785152000</v>
+        <v>1788000000</v>
       </c>
       <c r="G19">
         <v>1784654000</v>
@@ -2450,23 +2561,23 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
-        <v>339400000</v>
+        <v>339000000</v>
       </c>
       <c r="C20">
-        <v>298700000</v>
+        <v>299000000</v>
       </c>
       <c r="D20">
-        <v>304200000</v>
+        <v>304000000</v>
       </c>
       <c r="E20">
         <v>306000000</v>
       </c>
       <c r="F20">
-        <v>314089000</v>
+        <v>314000000</v>
       </c>
       <c r="G20">
         <v>289881000</v>
@@ -2572,8 +2683,8 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
         <v>-231000000</v>
@@ -2655,23 +2766,23 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
-        <v>64900000</v>
+        <v>63000000</v>
       </c>
       <c r="C22">
-        <v>64800000</v>
+        <v>63000000</v>
       </c>
       <c r="D22">
-        <v>79300000</v>
+        <v>79000000</v>
       </c>
       <c r="E22">
-        <v>78600000</v>
+        <v>76000000</v>
       </c>
       <c r="F22">
-        <v>84869000</v>
+        <v>82000000</v>
       </c>
       <c r="G22">
         <v>86296000</v>
@@ -2777,8 +2888,8 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
         <v>2191700000</v>
@@ -2899,23 +3010,23 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
-        <v>3286800000</v>
+        <v>3287000000</v>
       </c>
       <c r="C24">
-        <v>3217500000</v>
+        <v>3218000000</v>
       </c>
       <c r="D24">
-        <v>3258300000</v>
+        <v>3258000000</v>
       </c>
       <c r="E24">
-        <v>3244300000</v>
+        <v>3244000000</v>
       </c>
       <c r="F24">
-        <v>3232285000</v>
+        <v>3232000000</v>
       </c>
       <c r="G24">
         <v>3159165000</v>
@@ -3021,8 +3132,8 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="M25">
         <v>14989660000</v>
@@ -3110,23 +3221,23 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
-        <v>12843800000</v>
+        <v>12844000000</v>
       </c>
       <c r="C26">
-        <v>13100900000</v>
+        <v>13101000000</v>
       </c>
       <c r="D26">
-        <v>13438200000</v>
+        <v>13438000000</v>
       </c>
       <c r="E26">
-        <v>13620100000</v>
+        <v>13620000000</v>
       </c>
       <c r="F26">
-        <v>13793050000</v>
+        <v>13793000000</v>
       </c>
       <c r="G26">
         <v>13949530000</v>
@@ -3232,23 +3343,23 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
-        <v>-14383500000</v>
+        <v>-14384000000</v>
       </c>
       <c r="C27">
         <v>-14553000000</v>
       </c>
       <c r="D27">
-        <v>-14720300000</v>
+        <v>-14720000000</v>
       </c>
       <c r="E27">
-        <v>-14877800000</v>
+        <v>-14878000000</v>
       </c>
       <c r="F27">
-        <v>-15207850000</v>
+        <v>-15208000000</v>
       </c>
       <c r="G27">
         <v>-15364480000</v>
@@ -3354,23 +3465,23 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
-        <v>-1542400000</v>
+        <v>-1542000000</v>
       </c>
       <c r="C28">
         <v>-1455000000</v>
       </c>
       <c r="D28">
-        <v>-1285100000</v>
+        <v>-1285000000</v>
       </c>
       <c r="E28">
-        <v>-1260500000</v>
+        <v>-1261000000</v>
       </c>
       <c r="F28">
-        <v>-1417578000</v>
+        <v>-1418000000</v>
       </c>
       <c r="G28">
         <v>-1417784000</v>
@@ -3476,23 +3587,23 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
-        <v>-1542400000</v>
+        <v>-1542000000</v>
       </c>
       <c r="C29">
         <v>-1455000000</v>
       </c>
       <c r="D29">
-        <v>-1285100000</v>
+        <v>-1285000000</v>
       </c>
       <c r="E29">
-        <v>-1260500000</v>
+        <v>-1261000000</v>
       </c>
       <c r="F29">
-        <v>-1417578000</v>
+        <v>-1418000000</v>
       </c>
       <c r="G29">
         <v>-1417785000</v>
@@ -3598,8 +3709,8 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
         <v>1744400000</v>
@@ -3720,8 +3831,8 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
         <v>106300000</v>
@@ -3842,8 +3953,8 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
         <v>-1739900000</v>
@@ -3964,23 +4075,23 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B33">
-        <v>807200000</v>
+        <v>809000000</v>
       </c>
       <c r="C33">
-        <v>789900000</v>
+        <v>792000000</v>
       </c>
       <c r="D33">
-        <v>576700000</v>
+        <v>576000000</v>
       </c>
       <c r="E33">
-        <v>579900000</v>
+        <v>582000000</v>
       </c>
       <c r="F33">
-        <v>586731000</v>
+        <v>590000000</v>
       </c>
       <c r="G33">
         <v>661665000</v>
@@ -4086,23 +4197,23 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
-        <v>1787400000</v>
+        <v>1789000000</v>
       </c>
       <c r="C34">
-        <v>1786800000</v>
+        <v>1789000000</v>
       </c>
       <c r="D34">
-        <v>1786300000</v>
+        <v>1786000000</v>
       </c>
       <c r="E34">
-        <v>1785700000</v>
+        <v>1788000000</v>
       </c>
       <c r="F34">
-        <v>1785152000</v>
+        <v>1788000000</v>
       </c>
       <c r="G34">
         <v>1784654000</v>
